--- a/contagemDocs_SO.xlsx
+++ b/contagemDocs_SO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E936"/>
+  <dimension ref="A1:E938"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24439,7 +24439,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L27.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L11.pdf</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -24454,19 +24454,19 @@
       </c>
       <c r="D890" t="inlineStr">
         <is>
-          <t>Docs_13DeNovembro_L27.pdf</t>
+          <t>Docs_13DeNovembro_L11.pdf</t>
         </is>
       </c>
       <c r="E890" t="inlineStr">
         <is>
-          <t>Lote 027</t>
+          <t>Lote 011</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L36.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L27.pdf</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -24481,19 +24481,19 @@
       </c>
       <c r="D891" t="inlineStr">
         <is>
-          <t>Docs_13DeNovembro_L36.pdf</t>
+          <t>Docs_13DeNovembro_L27.pdf</t>
         </is>
       </c>
       <c r="E891" t="inlineStr">
         <is>
-          <t>Lote 036</t>
+          <t>Lote 027</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L39.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L36.pdf</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -24508,19 +24508,19 @@
       </c>
       <c r="D892" t="inlineStr">
         <is>
-          <t>Docs_13DeNovembro_L39.pdf</t>
+          <t>Docs_13DeNovembro_L36.pdf</t>
         </is>
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t>Lote 039</t>
+          <t>Lote 036</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L41.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L39.pdf</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -24535,19 +24535,19 @@
       </c>
       <c r="D893" t="inlineStr">
         <is>
-          <t>Docs_13DeNovembro_L41.pdf</t>
+          <t>Docs_13DeNovembro_L39.pdf</t>
         </is>
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t>Lote 041</t>
+          <t>Lote 039</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L04.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\02_13deNovembro\01_docsRecebidosEmail_Wpp\Docs_13DeNovembro_L41.pdf</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -24557,24 +24557,24 @@
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>EUROPA</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D894" t="inlineStr">
         <is>
-          <t>Docs_Europa_L04.pdf</t>
+          <t>Docs_13DeNovembro_L41.pdf</t>
         </is>
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t>Lote 004</t>
+          <t>Lote 041</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L11.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L04.pdf</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -24589,19 +24589,19 @@
       </c>
       <c r="D895" t="inlineStr">
         <is>
-          <t>Docs_Europa_L11.pdf</t>
+          <t>Docs_Europa_L04.pdf</t>
         </is>
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t>Lote 011</t>
+          <t>Lote 004</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L22.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L11.pdf</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -24616,19 +24616,19 @@
       </c>
       <c r="D896" t="inlineStr">
         <is>
-          <t>Docs_Europa_L22.pdf</t>
+          <t>Docs_Europa_L11.pdf</t>
         </is>
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t>Lote 022</t>
+          <t>Lote 011</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L24.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L13.pdf</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -24643,19 +24643,19 @@
       </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t>Docs_Europa_L24.pdf</t>
+          <t>Docs_Europa_L13.pdf</t>
         </is>
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t>Lote 024</t>
+          <t>Lote 013</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L14_FaltaDocs.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L22.pdf</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -24665,24 +24665,24 @@
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>FAZENDA BANANAS</t>
+          <t>EUROPA</t>
         </is>
       </c>
       <c r="D898" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L14_FaltaDocs.pdf</t>
+          <t>Docs_Europa_L22.pdf</t>
         </is>
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t>Lote 014</t>
+          <t>Lote 022</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L15.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\03_PAEuropa\01_docsRecebidosEmail_Wpp\Docs_Europa_L24.pdf</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -24692,24 +24692,24 @@
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>FAZENDA BANANAS</t>
+          <t>EUROPA</t>
         </is>
       </c>
       <c r="D899" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L15.pdf</t>
+          <t>Docs_Europa_L24.pdf</t>
         </is>
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t>Lote 015</t>
+          <t>Lote 024</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L17.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L14_FaltaDocs.pdf</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -24724,19 +24724,19 @@
       </c>
       <c r="D900" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L17.pdf</t>
+          <t>Docs_Bananas_L14_FaltaDocs.pdf</t>
         </is>
       </c>
       <c r="E900" t="inlineStr">
         <is>
-          <t>Lote 017</t>
+          <t>Lote 014</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L23.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L15.pdf</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -24751,19 +24751,19 @@
       </c>
       <c r="D901" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L23.pdf</t>
+          <t>Docs_Bananas_L15.pdf</t>
         </is>
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t>Lote 023</t>
+          <t>Lote 015</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L29.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L17.pdf</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -24778,19 +24778,19 @@
       </c>
       <c r="D902" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L29.pdf</t>
+          <t>Docs_Bananas_L17.pdf</t>
         </is>
       </c>
       <c r="E902" t="inlineStr">
         <is>
-          <t>Lote 029</t>
+          <t>Lote 017</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L34_PedirCadLuiza.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L23.pdf</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -24805,19 +24805,19 @@
       </c>
       <c r="D903" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L34_PedirCadLuiza.pdf</t>
+          <t>Docs_Bananas_L23.pdf</t>
         </is>
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t>Lote 034</t>
+          <t>Lote 023</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L46.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L29.pdf</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -24832,19 +24832,19 @@
       </c>
       <c r="D904" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L46.pdf</t>
+          <t>Docs_Bananas_L29.pdf</t>
         </is>
       </c>
       <c r="E904" t="inlineStr">
         <is>
-          <t>Lote 046</t>
+          <t>Lote 029</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L51.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L34_PedirCadLuiza.pdf</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -24859,19 +24859,19 @@
       </c>
       <c r="D905" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L51.pdf</t>
+          <t>Docs_Bananas_L34_PedirCadLuiza.pdf</t>
         </is>
       </c>
       <c r="E905" t="inlineStr">
         <is>
-          <t>Lote 051</t>
+          <t>Lote 034</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L52.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L46.pdf</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -24886,19 +24886,19 @@
       </c>
       <c r="D906" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L52.pdf</t>
+          <t>Docs_Bananas_L46.pdf</t>
         </is>
       </c>
       <c r="E906" t="inlineStr">
         <is>
-          <t>Lote 052</t>
+          <t>Lote 046</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L53.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L51.pdf</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -24913,19 +24913,19 @@
       </c>
       <c r="D907" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L53.pdf</t>
+          <t>Docs_Bananas_L51.pdf</t>
         </is>
       </c>
       <c r="E907" t="inlineStr">
         <is>
-          <t>Lote 053</t>
+          <t>Lote 051</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L61.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L52.pdf</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -24940,19 +24940,19 @@
       </c>
       <c r="D908" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L61.pdf</t>
+          <t>Docs_Bananas_L52.pdf</t>
         </is>
       </c>
       <c r="E908" t="inlineStr">
         <is>
-          <t>Lote 061</t>
+          <t>Lote 052</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L63.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L53.pdf</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -24967,19 +24967,19 @@
       </c>
       <c r="D909" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L63.pdf</t>
+          <t>Docs_Bananas_L53.pdf</t>
         </is>
       </c>
       <c r="E909" t="inlineStr">
         <is>
-          <t>Lote 063</t>
+          <t>Lote 053</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L89.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L61.pdf</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -24994,19 +24994,19 @@
       </c>
       <c r="D910" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L89.pdf</t>
+          <t>Docs_Bananas_L61.pdf</t>
         </is>
       </c>
       <c r="E910" t="inlineStr">
         <is>
-          <t>Lote 089</t>
+          <t>Lote 061</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L90.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L63.pdf</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -25021,19 +25021,19 @@
       </c>
       <c r="D911" t="inlineStr">
         <is>
-          <t>Docs_Bananas_L90.pdf</t>
+          <t>Docs_Bananas_L63.pdf</t>
         </is>
       </c>
       <c r="E911" t="inlineStr">
         <is>
-          <t>Lote 090</t>
+          <t>Lote 063</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L01.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L89.pdf</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -25043,24 +25043,24 @@
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>FAZENDA CAROLINA</t>
+          <t>FAZENDA BANANAS</t>
         </is>
       </c>
       <c r="D912" t="inlineStr">
         <is>
-          <t>Docs_Carolina_L01.pdf</t>
+          <t>Docs_Bananas_L89.pdf</t>
         </is>
       </c>
       <c r="E912" t="inlineStr">
         <is>
-          <t>Lote 001</t>
+          <t>Lote 089</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L05.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\04_PAFazendaBananas\01_docsRecebidosEmail_Wpp\Docs_Bananas_L90.pdf</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -25070,24 +25070,24 @@
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>FAZENDA CAROLINA</t>
+          <t>FAZENDA BANANAS</t>
         </is>
       </c>
       <c r="D913" t="inlineStr">
         <is>
-          <t>Docs_Carolina_L05.pdf</t>
+          <t>Docs_Bananas_L90.pdf</t>
         </is>
       </c>
       <c r="E913" t="inlineStr">
         <is>
-          <t>Lote 005</t>
+          <t>Lote 090</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L10.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L01.pdf</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -25102,19 +25102,19 @@
       </c>
       <c r="D914" t="inlineStr">
         <is>
-          <t>Docs_Carolina_L10.pdf</t>
+          <t>Docs_Carolina_L01.pdf</t>
         </is>
       </c>
       <c r="E914" t="inlineStr">
         <is>
-          <t>Lote 010</t>
+          <t>Lote 001</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L13.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L05.pdf</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -25129,19 +25129,19 @@
       </c>
       <c r="D915" t="inlineStr">
         <is>
-          <t>Docs_Carolina_L13.pdf</t>
+          <t>Docs_Carolina_L05.pdf</t>
         </is>
       </c>
       <c r="E915" t="inlineStr">
         <is>
-          <t>Lote 013</t>
+          <t>Lote 005</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L14.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L10.pdf</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -25156,19 +25156,19 @@
       </c>
       <c r="D916" t="inlineStr">
         <is>
-          <t>Docs_Carolina_L14.pdf</t>
+          <t>Docs_Carolina_L10.pdf</t>
         </is>
       </c>
       <c r="E916" t="inlineStr">
         <is>
-          <t>Lote 014</t>
+          <t>Lote 010</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L15.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L13.pdf</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -25183,19 +25183,19 @@
       </c>
       <c r="D917" t="inlineStr">
         <is>
-          <t>Docs_Carolina_L15.pdf</t>
+          <t>Docs_Carolina_L13.pdf</t>
         </is>
       </c>
       <c r="E917" t="inlineStr">
         <is>
-          <t>Lote 015</t>
+          <t>Lote 013</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L17.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L14.pdf</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -25210,19 +25210,19 @@
       </c>
       <c r="D918" t="inlineStr">
         <is>
-          <t>Docs_Carolina_L17.pdf</t>
+          <t>Docs_Carolina_L14.pdf</t>
         </is>
       </c>
       <c r="E918" t="inlineStr">
         <is>
-          <t>Lote 017</t>
+          <t>Lote 014</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L24.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L15.pdf</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -25237,19 +25237,19 @@
       </c>
       <c r="D919" t="inlineStr">
         <is>
-          <t>Docs_Carolina_L24.pdf</t>
+          <t>Docs_Carolina_L15.pdf</t>
         </is>
       </c>
       <c r="E919" t="inlineStr">
         <is>
-          <t>Lote 024</t>
+          <t>Lote 015</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L25.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L17.pdf</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -25264,19 +25264,19 @@
       </c>
       <c r="D920" t="inlineStr">
         <is>
-          <t>Docs_Carolina_L25.pdf</t>
+          <t>Docs_Carolina_L17.pdf</t>
         </is>
       </c>
       <c r="E920" t="inlineStr">
         <is>
-          <t>Lote 025</t>
+          <t>Lote 017</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L02.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L24.pdf</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -25286,24 +25286,24 @@
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>NOVA GERAÇÃO</t>
+          <t>FAZENDA CAROLINA</t>
         </is>
       </c>
       <c r="D921" t="inlineStr">
         <is>
-          <t>Docs_NovaGeração_L02.pdf</t>
+          <t>Docs_Carolina_L24.pdf</t>
         </is>
       </c>
       <c r="E921" t="inlineStr">
         <is>
-          <t>Lote 002</t>
+          <t>Lote 024</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L07.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PAFazendaCarolina\01_docsRecebidosEmail_Wpp\Docs_Carolina_L25.pdf</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -25313,24 +25313,24 @@
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>NOVA GERAÇÃO</t>
+          <t>FAZENDA CAROLINA</t>
         </is>
       </c>
       <c r="D922" t="inlineStr">
         <is>
-          <t>Docs_NovaGeração_L07.pdf</t>
+          <t>Docs_Carolina_L25.pdf</t>
         </is>
       </c>
       <c r="E922" t="inlineStr">
         <is>
-          <t>Lote 007</t>
+          <t>Lote 025</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L20.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L02.pdf</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -25345,19 +25345,19 @@
       </c>
       <c r="D923" t="inlineStr">
         <is>
-          <t>Docs_NovaGeração_L20.pdf</t>
+          <t>Docs_NovaGeração_L02.pdf</t>
         </is>
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t>Lote 020</t>
+          <t>Lote 002</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L25.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L07.pdf</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -25372,19 +25372,19 @@
       </c>
       <c r="D924" t="inlineStr">
         <is>
-          <t>Docs_NovaGeração_L25.pdf</t>
+          <t>Docs_NovaGeração_L07.pdf</t>
         </is>
       </c>
       <c r="E924" t="inlineStr">
         <is>
-          <t>Lote 025</t>
+          <t>Lote 007</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L31.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L20.pdf</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -25399,19 +25399,19 @@
       </c>
       <c r="D925" t="inlineStr">
         <is>
-          <t>Docs_NovaGeração_L31.pdf</t>
+          <t>Docs_NovaGeração_L20.pdf</t>
         </is>
       </c>
       <c r="E925" t="inlineStr">
         <is>
-          <t>Lote 031</t>
+          <t>Lote 020</t>
         </is>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L02.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L25.pdf</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -25421,24 +25421,24 @@
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>SÃO PEDRO</t>
+          <t>NOVA GERAÇÃO</t>
         </is>
       </c>
       <c r="D926" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L02.pdf</t>
+          <t>Docs_NovaGeração_L25.pdf</t>
         </is>
       </c>
       <c r="E926" t="inlineStr">
         <is>
-          <t>Lote 002</t>
+          <t>Lote 025</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L05.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PANovaGeracao\01_docsRecebidosEmail_Wpp\Docs_NovaGeração_L31.pdf</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -25448,24 +25448,24 @@
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>SÃO PEDRO</t>
+          <t>NOVA GERAÇÃO</t>
         </is>
       </c>
       <c r="D927" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L05.pdf</t>
+          <t>Docs_NovaGeração_L31.pdf</t>
         </is>
       </c>
       <c r="E927" t="inlineStr">
         <is>
-          <t>Lote 005</t>
+          <t>Lote 031</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L06.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L02.pdf</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -25480,19 +25480,19 @@
       </c>
       <c r="D928" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L06.pdf</t>
+          <t>Docs_SãoPedro_L02.pdf</t>
         </is>
       </c>
       <c r="E928" t="inlineStr">
         <is>
-          <t>Lote 006</t>
+          <t>Lote 002</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L07.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L05.pdf</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -25507,19 +25507,19 @@
       </c>
       <c r="D929" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L07.pdf</t>
+          <t>Docs_SãoPedro_L05.pdf</t>
         </is>
       </c>
       <c r="E929" t="inlineStr">
         <is>
-          <t>Lote 007</t>
+          <t>Lote 005</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L10.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L06.pdf</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -25534,19 +25534,19 @@
       </c>
       <c r="D930" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L10.pdf</t>
+          <t>Docs_SãoPedro_L06.pdf</t>
         </is>
       </c>
       <c r="E930" t="inlineStr">
         <is>
-          <t>Lote 010</t>
+          <t>Lote 006</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L14.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L07.pdf</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -25561,19 +25561,19 @@
       </c>
       <c r="D931" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L14.pdf</t>
+          <t>Docs_SãoPedro_L07.pdf</t>
         </is>
       </c>
       <c r="E931" t="inlineStr">
         <is>
-          <t>Lote 014</t>
+          <t>Lote 007</t>
         </is>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L16.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L10.pdf</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -25588,19 +25588,19 @@
       </c>
       <c r="D932" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L16.pdf</t>
+          <t>Docs_SãoPedro_L10.pdf</t>
         </is>
       </c>
       <c r="E932" t="inlineStr">
         <is>
-          <t>Lote 016</t>
+          <t>Lote 010</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L30.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L14.pdf</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -25615,19 +25615,19 @@
       </c>
       <c r="D933" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L30.pdf</t>
+          <t>Docs_SãoPedro_L14.pdf</t>
         </is>
       </c>
       <c r="E933" t="inlineStr">
         <is>
-          <t>Lote 030</t>
+          <t>Lote 014</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L34.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L16.pdf</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -25642,19 +25642,19 @@
       </c>
       <c r="D934" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L34.pdf</t>
+          <t>Docs_SãoPedro_L16.pdf</t>
         </is>
       </c>
       <c r="E934" t="inlineStr">
         <is>
-          <t>Lote 034</t>
+          <t>Lote 016</t>
         </is>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L35.pdf</t>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L30.pdf</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -25669,37 +25669,91 @@
       </c>
       <c r="D935" t="inlineStr">
         <is>
-          <t>Docs_SãoPedro_L35.pdf</t>
+          <t>Docs_SãoPedro_L30.pdf</t>
         </is>
       </c>
       <c r="E935" t="inlineStr">
         <is>
-          <t>Lote 035</t>
+          <t>Lote 030</t>
         </is>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L34.pdf</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>GUARAPUAVA</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>SÃO PEDRO</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>Docs_SãoPedro_L34.pdf</t>
+        </is>
+      </c>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>Lote 034</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\017_guarapuava_6PAs\05_PASaoPedro\01_docsRecebidosEmail_Wpp\Docs_SãoPedro_L35.pdf</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>GUARAPUAVA</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>SÃO PEDRO</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>Docs_SãoPedro_L35.pdf</t>
+        </is>
+      </c>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>Lote 035</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
           <t>C:/Users/CoordenaçãodeTidoLag/ufpr.br/Intranet do LAGEAMB - 02_SO/11_municipiosPAs\019_tibagi_8PAs\02_PABoaVista\01_docsRecebidosEmail_Wpp\Docs_boaVista_L05.pdf</t>
         </is>
       </c>
-      <c r="B936" t="inlineStr">
+      <c r="B938" t="inlineStr">
         <is>
           <t>TIBAGI</t>
         </is>
       </c>
-      <c r="C936" t="inlineStr">
+      <c r="C938" t="inlineStr">
         <is>
           <t>BOA VISTA</t>
         </is>
       </c>
-      <c r="D936" t="inlineStr">
+      <c r="D938" t="inlineStr">
         <is>
           <t>Docs_boaVista_L05.pdf</t>
         </is>
       </c>
-      <c r="E936" t="inlineStr">
+      <c r="E938" t="inlineStr">
         <is>
           <t>Lote 005</t>
         </is>
@@ -25966,13 +26020,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89833087-A9BB-4F48-81D9-E5A48535B1B4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F86665A-97B6-47DA-8EFB-E56F770AB26C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B1F66A-F78E-4B24-9827-C1656B2C78BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8093390-50F0-480C-B8B4-B2C7D53487D2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8209495E-AF33-41A2-9F87-6C05AC5BA78C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70DF594D-B2AA-4728-83D3-62C1656EA4DD}"/>
 </file>
--- a/contagemDocs_SO.xlsx
+++ b/contagemDocs_SO.xlsx
@@ -26074,13 +26074,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EBF2446-B7D6-49E4-9FA2-A6F2088D2DC6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{886BB92E-3988-4909-9106-8A71E61446F7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{750446EF-241E-43BF-BE6E-817E850C3D2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{098F34C5-709D-42E5-80E6-06C66B45E931}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B5708DF-81AD-4A84-8299-3F83ABB5ECD7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AC4EC2B-DBDB-4FB4-A8D4-93354538734E}"/>
 </file>
--- a/contagemDocs_SO.xlsx
+++ b/contagemDocs_SO.xlsx
@@ -26074,13 +26074,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{886BB92E-3988-4909-9106-8A71E61446F7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE2B53B3-9F96-4259-B749-461D991385B4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{098F34C5-709D-42E5-80E6-06C66B45E931}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{548C4E5A-D0E8-413D-BA1C-FA7AAC778E6B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AC4EC2B-DBDB-4FB4-A8D4-93354538734E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FBE4C2E-4E1B-4BE1-BC83-269AEB86F416}"/>
 </file>
--- a/contagemDocs_SO.xlsx
+++ b/contagemDocs_SO.xlsx
@@ -26074,13 +26074,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE2B53B3-9F96-4259-B749-461D991385B4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB4D19DE-1A25-4472-969F-C4C58E8511DE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{548C4E5A-D0E8-413D-BA1C-FA7AAC778E6B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69E1DA3C-DC24-4B43-BC2E-0D250471BF09}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FBE4C2E-4E1B-4BE1-BC83-269AEB86F416}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AADE296-0B88-48CE-9CDA-90C8D377E248}"/>
 </file>
--- a/contagemDocs_SO.xlsx
+++ b/contagemDocs_SO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26074,13 +26074,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB4D19DE-1A25-4472-969F-C4C58E8511DE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89081BC3-5659-478B-8347-8B41E04672FB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69E1DA3C-DC24-4B43-BC2E-0D250471BF09}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB7231F9-A315-46DF-BF74-ED2110056989}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AADE296-0B88-48CE-9CDA-90C8D377E248}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEF1D41B-9881-4CE1-BE67-ECF8BD2BDAF7}"/>
 </file>
--- a/contagemDocs_SO.xlsx
+++ b/contagemDocs_SO.xlsx
@@ -26128,13 +26128,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6EC041A-466E-47E0-B787-76F8015C3E1B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3EC004C-8012-4302-8A90-C1B8BF1AA5FF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E36DC477-8024-4CF3-AB1A-1711C10ED30F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C084623-C5F9-4570-904A-C19A47CE50AF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA8C0AA4-5FDB-4A55-943F-587E45BC4AA2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17BAF2E0-D9F9-412B-B63B-42C17D745A30}"/>
 </file>
--- a/contagemDocs_SO.xlsx
+++ b/contagemDocs_SO.xlsx
@@ -26128,13 +26128,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3EC004C-8012-4302-8A90-C1B8BF1AA5FF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C341022B-9954-4D29-ABFF-2744ACCF85CB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C084623-C5F9-4570-904A-C19A47CE50AF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E404994A-8A3A-4FF4-8841-A894122297C3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17BAF2E0-D9F9-412B-B63B-42C17D745A30}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{710350E5-63FD-4911-BC3D-A46D8BCF2D92}"/>
 </file>
--- a/contagemDocs_SO.xlsx
+++ b/contagemDocs_SO.xlsx
@@ -26128,13 +26128,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C341022B-9954-4D29-ABFF-2744ACCF85CB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BCEB05D-2F53-4111-BE93-BB4D176A0FBC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E404994A-8A3A-4FF4-8841-A894122297C3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACCD46DA-E5F7-4726-AD5A-3D843F939795}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{710350E5-63FD-4911-BC3D-A46D8BCF2D92}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D227AEE-E5D8-4C56-81A6-F5481240F164}"/>
 </file>
--- a/contagemDocs_SO.xlsx
+++ b/contagemDocs_SO.xlsx
@@ -26128,13 +26128,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BCEB05D-2F53-4111-BE93-BB4D176A0FBC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{562457E2-D7A9-4271-99E6-A74FDDF2A762}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACCD46DA-E5F7-4726-AD5A-3D843F939795}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31FB887E-2185-4516-923E-C2F43F362300}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D227AEE-E5D8-4C56-81A6-F5481240F164}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32D2F5FC-1D3A-4FED-B037-5AD94A07858A}"/>
 </file>
--- a/contagemDocs_SO.xlsx
+++ b/contagemDocs_SO.xlsx
@@ -26128,13 +26128,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{562457E2-D7A9-4271-99E6-A74FDDF2A762}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC187A-1AAC-4935-8C50-0F3D3F6B2FD1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31FB887E-2185-4516-923E-C2F43F362300}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4406BC-98EC-4CCC-B50E-EF498AF2DA34}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32D2F5FC-1D3A-4FED-B037-5AD94A07858A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CD58B40-A90F-40AA-9BB0-7D61944C048B}"/>
 </file>
--- a/contagemDocs_SO.xlsx
+++ b/contagemDocs_SO.xlsx
@@ -26128,13 +26128,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC187A-1AAC-4935-8C50-0F3D3F6B2FD1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75ADE486-69B5-4933-87D4-EC59200A1674}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4406BC-98EC-4CCC-B50E-EF498AF2DA34}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4F6435D-A586-4D34-B02B-2F4706938AC7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CD58B40-A90F-40AA-9BB0-7D61944C048B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{380556E8-C2F6-4AAD-AD4A-8F1FB0415EE4}"/>
 </file>
--- a/contagemDocs_SO.xlsx
+++ b/contagemDocs_SO.xlsx
@@ -26128,13 +26128,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75ADE486-69B5-4933-87D4-EC59200A1674}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5B95B4-7AF7-4A53-A290-9D18A63A5805}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4F6435D-A586-4D34-B02B-2F4706938AC7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D47D53F-6DE2-4B85-BFB4-90BFB35E8493}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{380556E8-C2F6-4AAD-AD4A-8F1FB0415EE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7317CD9-1A5F-40FE-8C9E-D92833A602F9}"/>
 </file>
--- a/contagemDocs_SO.xlsx
+++ b/contagemDocs_SO.xlsx
@@ -26128,13 +26128,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5B95B4-7AF7-4A53-A290-9D18A63A5805}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA78457B-ABD7-4BCA-968A-84EB7D6E23E5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D47D53F-6DE2-4B85-BFB4-90BFB35E8493}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{491692F6-F64A-4C80-811E-0BF515683224}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7317CD9-1A5F-40FE-8C9E-D92833A602F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{361660C3-C752-4357-90DB-E7B935C8BB8A}"/>
 </file>
--- a/contagemDocs_SO.xlsx
+++ b/contagemDocs_SO.xlsx
@@ -26128,13 +26128,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA78457B-ABD7-4BCA-968A-84EB7D6E23E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34246D25-12A5-4061-9395-E431D3824FA7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{491692F6-F64A-4C80-811E-0BF515683224}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BE5521B-770E-447E-9ED6-AF67D0930EE4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{361660C3-C752-4357-90DB-E7B935C8BB8A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C80A95A-3C6B-4BA2-8178-9AA25A7937AB}"/>
 </file>
--- a/contagemDocs_SO.xlsx
+++ b/contagemDocs_SO.xlsx
@@ -26128,13 +26128,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34246D25-12A5-4061-9395-E431D3824FA7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F3B6E3D-36F2-4DBF-B24A-71B6CCD55093}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BE5521B-770E-447E-9ED6-AF67D0930EE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D26411C5-146C-4630-A333-0BAD911B45AA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C80A95A-3C6B-4BA2-8178-9AA25A7937AB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C33B01-5AF2-44FF-B6C8-2D30E68EA24E}"/>
 </file>
--- a/contagemDocs_SO.xlsx
+++ b/contagemDocs_SO.xlsx
@@ -26128,13 +26128,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F3B6E3D-36F2-4DBF-B24A-71B6CCD55093}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09D0F634-D8BD-4E36-88BD-5C6C16F29F83}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D26411C5-146C-4630-A333-0BAD911B45AA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{246CE0B3-A5F2-4C46-B188-B8522B285E1D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C33B01-5AF2-44FF-B6C8-2D30E68EA24E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF59D0A3-8A48-4013-AD05-939B4C860849}"/>
 </file>
--- a/contagemDocs_SO.xlsx
+++ b/contagemDocs_SO.xlsx
@@ -26128,13 +26128,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09D0F634-D8BD-4E36-88BD-5C6C16F29F83}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBD018CB-6693-4D3E-A04D-4498F356EEBD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{246CE0B3-A5F2-4C46-B188-B8522B285E1D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAAA0B0-D2B1-4B0F-A85D-8350225AD769}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF59D0A3-8A48-4013-AD05-939B4C860849}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{272009E6-773A-46FC-8BF3-A7AEA4715BFD}"/>
 </file>